--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDrive\Coursera\Course 3 - Data Cleaning\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDrive\Coursera\Course 3 - Data Cleaning\Submit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="172">
   <si>
     <t>SubjectID</t>
   </si>
@@ -540,7 +539,7 @@
     <t>radians/second</t>
   </si>
   <si>
-    <t>total accelleration - gravity</t>
+    <t>total acceleration - gravity</t>
   </si>
 </sst>
 </file>
@@ -870,7 +869,7 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,424 +2032,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A81" sqref="A1:A81"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>